--- a/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado10\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30200" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1222,12 +1217,6 @@
     <t>La transformación de productos en sumas o diferencias</t>
   </si>
   <si>
-    <t>Transforma productos en sumas o diferencias</t>
-  </si>
-  <si>
-    <t>Actividad para expresar productos o sumas de funciones trigonométricas como sumas o productos</t>
-  </si>
-  <si>
     <t>Proponer 10 ejercicios para productos y sumas de fuciones trigonométricas y que el estudiante deba aplicar las fórmulas correspondientes y seleccionar la respuesta correcta.</t>
   </si>
   <si>
@@ -1626,6 +1615,12 @@
   </si>
   <si>
     <t>Actividades sobre La resolución de triángulos oblicuángulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad transformar expresiones trigonométricas </t>
+  </si>
+  <si>
+    <t>Transforma productos en sumas o sumas en productos</t>
   </si>
 </sst>
 </file>
@@ -1958,34 +1953,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,6 +2002,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2087,7 +2082,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2122,7 +2117,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2333,128 +2328,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.9296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.1328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.1328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="27.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="17.86328125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="5.59765625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="37.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.265625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="3.3984375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="4.1328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="27" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="8" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="20.06640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="16.265625" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="8"/>
+    <col min="20" max="20" width="20" style="8" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="11.33203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="38"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -2501,19 +2496,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="U3" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="T3" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -2560,19 +2555,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T4" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="U4" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="U4" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -2619,19 +2614,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S5" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T5" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +2642,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="10"/>
       <c r="G6" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H6" s="19">
         <v>4</v>
@@ -2669,7 +2664,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>19</v>
@@ -2678,19 +2673,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S6" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="U6" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T6" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2701,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="10"/>
       <c r="G7" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H7" s="19">
         <v>5</v>
@@ -2715,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>20</v>
@@ -2728,7 +2723,7 @@
         <v>39</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P7" s="20" t="s">
         <v>20</v>
@@ -2737,19 +2732,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S7" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="U7" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T7" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -2798,19 +2793,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S8" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T8" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2857,19 +2852,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S9" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="U9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="T9" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -2916,19 +2911,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S10" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -2946,7 +2941,7 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H11" s="19">
         <v>9</v>
@@ -2955,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>20</v>
@@ -2968,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P11" s="20" t="s">
         <v>19</v>
@@ -2977,19 +2972,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S11" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="U11" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T11" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3002,7 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H12" s="14">
         <v>10</v>
@@ -3016,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -3029,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P12" s="20" t="s">
         <v>19</v>
@@ -3038,19 +3033,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S12" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="U12" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T12" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3063,7 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H13" s="14">
         <v>11</v>
@@ -3077,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -3090,7 +3085,7 @@
         <v>33</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P13" s="20" t="s">
         <v>20</v>
@@ -3099,19 +3094,19 @@
         <v>6</v>
       </c>
       <c r="R13" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S13" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U13" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T13" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3124,7 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="13" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="H14" s="19">
         <v>12</v>
@@ -3138,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -3151,7 +3146,7 @@
         <v>39</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>19</v>
@@ -3160,19 +3155,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S14" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="U14" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T14" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3185,7 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="19">
         <v>13</v>
@@ -3199,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -3212,7 +3207,7 @@
         <v>121</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>19</v>
@@ -3221,19 +3216,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S15" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="U15" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T15" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -3244,12 +3239,12 @@
         <v>123</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
       <c r="G16" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" s="14">
         <v>14</v>
@@ -3258,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -3271,7 +3266,7 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>19</v>
@@ -3280,19 +3275,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S16" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="U16" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:21" ht="14.25" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -3303,14 +3298,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="14">
         <v>15</v>
@@ -3319,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -3332,7 +3327,7 @@
         <v>40</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P17" s="20" t="s">
         <v>19</v>
@@ -3341,19 +3336,19 @@
         <v>6</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S17" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="U17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T17" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
@@ -3364,14 +3359,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18" s="19">
         <v>16</v>
@@ -3380,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -3393,7 +3388,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>19</v>
@@ -3402,19 +3397,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S18" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="U18" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T18" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -3425,14 +3420,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="19">
         <v>17</v>
@@ -3441,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
@@ -3454,7 +3449,7 @@
         <v>33</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>19</v>
@@ -3463,19 +3458,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S19" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="U19" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T19" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
@@ -3486,14 +3481,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H20" s="14">
         <v>18</v>
@@ -3502,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -3515,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>19</v>
@@ -3524,19 +3519,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S20" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="U20" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T20" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
@@ -3547,12 +3542,12 @@
         <v>123</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="10"/>
       <c r="G21" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="14">
         <v>19</v>
@@ -3561,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
@@ -3574,7 +3569,7 @@
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P21" s="20" t="s">
         <v>19</v>
@@ -3583,19 +3578,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S21" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="U21" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="T21" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
@@ -3606,14 +3601,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" s="19">
         <v>20</v>
@@ -3622,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -3635,7 +3630,7 @@
         <v>24</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>19</v>
@@ -3644,19 +3639,19 @@
         <v>6</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S22" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="U22" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T22" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
@@ -3667,14 +3662,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H23" s="19">
         <v>21</v>
@@ -3683,7 +3678,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -3696,7 +3691,7 @@
         <v>43</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P23" s="20" t="s">
         <v>19</v>
@@ -3705,19 +3700,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S23" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="U23" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T23" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>15</v>
       </c>
@@ -3728,14 +3723,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H24" s="14">
         <v>22</v>
@@ -3744,7 +3739,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -3757,7 +3752,7 @@
         <v>39</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>19</v>
@@ -3766,19 +3761,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S24" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T24" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -3789,14 +3784,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H25" s="14">
         <v>23</v>
@@ -3805,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
@@ -3818,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P25" s="20" t="s">
         <v>19</v>
@@ -3827,19 +3822,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S25" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="U25" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T25" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
@@ -3850,14 +3845,14 @@
         <v>123</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H26" s="19">
         <v>24</v>
@@ -3866,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>20</v>
@@ -3879,7 +3874,7 @@
         <v>33</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>19</v>
@@ -3888,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S26" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="U26" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T26" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>15</v>
       </c>
@@ -3911,14 +3906,14 @@
         <v>123</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H27" s="19">
         <v>25</v>
@@ -3927,7 +3922,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>19</v>
@@ -3940,7 +3935,7 @@
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P27" s="20" t="s">
         <v>20</v>
@@ -3949,19 +3944,19 @@
         <v>9</v>
       </c>
       <c r="R27" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="U27" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S27" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>15</v>
       </c>
@@ -3972,14 +3967,14 @@
         <v>123</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H28" s="14">
         <v>26</v>
@@ -3988,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -4001,7 +3996,7 @@
         <v>121</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>19</v>
@@ -4010,19 +4005,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S28" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="U28" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T28" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>15</v>
       </c>
@@ -4033,12 +4028,12 @@
         <v>123</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H29" s="14">
         <v>27</v>
@@ -4047,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -4060,7 +4055,7 @@
         <v>120</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P29" s="20" t="s">
         <v>19</v>
@@ -4069,19 +4064,19 @@
         <v>6</v>
       </c>
       <c r="R29" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S29" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="U29" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T29" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="U29" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>15</v>
       </c>
@@ -4092,12 +4087,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="G30" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H30" s="19">
         <v>28</v>
@@ -4106,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -4119,7 +4114,7 @@
         <v>33</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>19</v>
@@ -4128,19 +4123,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S30" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="U30" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T30" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4146,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="10"/>
@@ -4165,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>20</v>
@@ -4185,7 +4180,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="28"/>
     </row>
-    <row r="32" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="14.25" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
@@ -4196,12 +4191,12 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
       <c r="G32" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H32" s="14">
         <v>30</v>
@@ -4210,7 +4205,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>20</v>
@@ -4223,7 +4218,7 @@
         <v>52</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>20</v>
@@ -4232,202 +4227,202 @@
         <v>6</v>
       </c>
       <c r="R32" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S32" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="U32" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="T32" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="C33" s="22"/>
     </row>
-    <row r="47" spans="1:3" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="14.25" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="14.25" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="14.25" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="14.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="14.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="14.25" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="14.25" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="14.25" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="14.25" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="14.25" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="14.25" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="14.25" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="14.25" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="14.25" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="14.25" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="14.25" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="14.25" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="14.25" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="14.25" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="14.25" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="14.25" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>115</v>
       </c>
@@ -4437,6 +4432,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4451,12 +4452,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4509,27 +4504,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4546,7 +4541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4565,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4589,7 +4584,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4608,7 +4603,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4624,7 +4619,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4641,7 +4636,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4658,7 +4653,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4673,7 +4668,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4688,7 +4683,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4703,7 +4698,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4718,7 +4713,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4733,7 +4728,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4748,7 +4743,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4763,7 +4758,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4778,7 +4773,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4793,7 +4788,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4807,7 +4802,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4821,7 +4816,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4835,7 +4830,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4849,7 +4844,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4864,7 +4859,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4879,7 +4874,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4894,7 +4889,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4909,7 +4904,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4924,7 +4919,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4939,7 +4934,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4954,7 +4949,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4969,7 +4964,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4984,7 +4979,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4999,7 +4994,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5014,7 +5009,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5029,7 +5024,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5044,7 +5039,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5059,7 +5054,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5074,7 +5069,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5089,7 +5084,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5104,7 +5099,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5119,7 +5114,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5134,7 +5129,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5149,7 +5144,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5164,7 +5159,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5179,7 +5174,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5194,7 +5189,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5209,7 +5204,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5224,7 +5219,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5239,7 +5234,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5254,7 +5249,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5269,7 +5264,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5281,7 +5276,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5293,7 +5288,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5306,7 +5301,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5319,7 +5314,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5332,7 +5327,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5345,7 +5340,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5358,7 +5353,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5371,7 +5366,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5384,7 +5379,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5397,7 +5392,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5410,7 +5405,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5423,7 +5418,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5436,7 +5431,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5449,7 +5444,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5462,7 +5457,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5475,7 +5470,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5488,7 +5483,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5501,7 +5496,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5514,7 +5509,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5527,7 +5522,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5540,7 +5535,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5553,7 +5548,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5567,7 +5562,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5581,7 +5576,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5595,7 +5590,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5609,7 +5604,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5623,7 +5618,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5637,7 +5632,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5651,7 +5646,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5665,7 +5660,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5679,7 +5674,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5693,7 +5688,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5707,7 +5702,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5721,7 +5716,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5735,7 +5730,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5749,7 +5744,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5763,7 +5758,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5777,7 +5772,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5791,7 +5786,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5805,7 +5800,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5819,7 +5814,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5833,7 +5828,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5847,7 +5842,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5861,7 +5856,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5875,7 +5870,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5889,7 +5884,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5903,7 +5898,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5917,7 +5912,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5931,7 +5926,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5945,7 +5940,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5959,7 +5954,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5973,7 +5968,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5987,7 +5982,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6001,7 +5996,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6015,7 +6010,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6029,7 +6024,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6043,7 +6038,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6057,7 +6052,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6071,7 +6066,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6085,7 +6080,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6099,7 +6094,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6113,7 +6108,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6127,7 +6122,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6141,7 +6136,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6155,7 +6150,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6169,7 +6164,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6183,7 +6178,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6197,7 +6192,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6211,7 +6206,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6225,7 +6220,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6239,7 +6234,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6253,7 +6248,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6267,7 +6262,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6281,7 +6276,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6295,7 +6290,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6309,7 +6304,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6323,7 +6318,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6337,7 +6332,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6351,7 +6346,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6365,7 +6360,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6379,7 +6374,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6393,7 +6388,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6407,7 +6402,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6421,7 +6416,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30200" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30195" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="266">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1282,9 +1287,6 @@
     <t>Las ecuaciones trigonometricas con funciones inversas</t>
   </si>
   <si>
-    <t>Soluciona ecuaciones trigonométricas con funciones inversas</t>
-  </si>
-  <si>
     <t>Actividad para hallar la solución de ecuaciones trigonométricas con funciones inversas haciendo uso de calculadora</t>
   </si>
   <si>
@@ -1621,6 +1623,12 @@
   </si>
   <si>
     <t>Transforma productos en sumas o sumas en productos</t>
+  </si>
+  <si>
+    <t>Resuelve ecuaciones trigonométricas con funciones inversas</t>
+  </si>
+  <si>
+    <t>La resolución de triángulos no rectángulos</t>
   </si>
 </sst>
 </file>
@@ -1853,174 +1861,162 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2328,2102 +2324,2090 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.85546875" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9" style="8" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="20" style="8" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="11.33203125" style="8"/>
+    <col min="1" max="5" width="64.85546875" style="15"/>
+    <col min="6" max="6" width="64.85546875" style="51"/>
+    <col min="7" max="7" width="64.85546875" style="15"/>
+    <col min="8" max="9" width="64.85546875" style="51"/>
+    <col min="10" max="10" width="64.85546875" style="52"/>
+    <col min="11" max="14" width="64.85546875" style="15"/>
+    <col min="15" max="15" width="64.85546875" style="51"/>
+    <col min="16" max="16" width="64.85546875" style="53"/>
+    <col min="17" max="17" width="64.85546875" style="51"/>
+    <col min="18" max="16384" width="64.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="3" t="s">
+    <row r="2" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A3" s="16" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="34">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="15" t="s">
+      <c r="N3" s="38"/>
+      <c r="O3" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="41">
         <v>6</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="S3" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="T3" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="U3" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="U3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>6</v>
+      </c>
+      <c r="R4" s="42" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="S4" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="46">
+        <v>3</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J5" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>6</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="H6" s="34">
+        <v>4</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="J6" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="20" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q6" s="41">
         <v>6</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R6" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T4" s="30" t="s">
+      <c r="T6" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="7" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="34">
+        <v>5</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J7" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>6</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="46">
+        <v>6</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>6</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="46">
+        <v>7</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>6</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="U9" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="34">
+        <v>8</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="20" t="s">
+      <c r="O10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>6</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="U10" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="34">
+        <v>9</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="J11" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="41">
         <v>6</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R11" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S11" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="S5" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="T11" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B12" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C12" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="13" t="s">
+      <c r="D12" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="46">
+        <v>10</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>6</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="U12" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="46">
+        <v>11</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="41">
+        <v>6</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="U13" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="34">
+        <v>12</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>6</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="34">
+        <v>13</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>6</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="46">
+        <v>14</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>6</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="46">
+        <v>15</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>6</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S17" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T17" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="U17" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="34">
+        <v>16</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>6</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S18" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="34">
+        <v>17</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="41">
+        <v>6</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="46">
+        <v>18</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>6</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T20" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="46">
+        <v>19</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>6</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="S21" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="T21" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="U21" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="34">
+        <v>20</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>6</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S22" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T22" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="34">
+        <v>21</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>6</v>
+      </c>
+      <c r="R23" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="46">
+        <v>22</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="H6" s="19">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="P24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>6</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S24" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T24" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="U24" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="46">
+        <v>23</v>
+      </c>
+      <c r="I25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J25" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="M25" s="38"/>
+      <c r="N25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="P25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q25" s="41">
         <v>6</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R25" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S25" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="T25" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="U25" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C26" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="D26" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="34">
+        <v>24</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="41">
+        <v>6</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="U26" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="34">
+        <v>25</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="M27" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="K7" s="33" t="s">
+      <c r="Q27" s="41">
+        <v>9</v>
+      </c>
+      <c r="R27" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="S27" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="U27" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="46">
+        <v>26</v>
+      </c>
+      <c r="I28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="J28" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" s="20" t="s">
+      <c r="M28" s="38"/>
+      <c r="N28" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="41">
+        <v>6</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S28" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T28" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="U28" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="46">
+        <v>27</v>
+      </c>
+      <c r="I29" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="J29" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="41">
         <v>6</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R29" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S29" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="S7" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="T29" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="U29" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B30" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C30" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="D30" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="34">
+        <v>28</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="41">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="R30" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S30" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="T30" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="U30" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="34">
+        <v>29</v>
+      </c>
+      <c r="I31" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J31" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="41"/>
+    </row>
+    <row r="32" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="46">
+        <v>30</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="28">
+      <c r="M32" s="38"/>
+      <c r="N32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="41">
         <v>6</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R32" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S32" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="S8" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="14">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>6</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="T9" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="19">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>6</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="19">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>6</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="14">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>6</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="14">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>6</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T13" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="19">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>6</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="19">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>6</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="14">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>6</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="T16" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="14">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="28">
-        <v>6</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="19">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="28">
-        <v>6</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="19">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>6</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="14">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>6</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T20" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="14">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>6</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="T21" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="19">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>6</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="19">
-        <v>21</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>6</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="14">
-        <v>22</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>6</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="14">
-        <v>23</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>6</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T25" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="19">
-        <v>24</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="28">
-        <v>6</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="19">
-        <v>25</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="28">
-        <v>9</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="14">
-        <v>26</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="28">
-        <v>6</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T28" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H29" s="14">
-        <v>27</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="28">
-        <v>6</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S29" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T29" s="30" t="s">
+      <c r="T32" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="U29" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="19">
-        <v>28</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="28">
-        <v>6</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S30" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T30" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="19">
-        <v>29</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="28"/>
-    </row>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="14">
-        <v>30</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="P32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="28">
-        <v>6</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="S32" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="T32" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C33" s="22"/>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="U32" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="50"/>
+    </row>
+    <row r="47" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4432,12 +4416,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4452,6 +4430,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4504,27 +4488,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1"/>
-    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4541,7 +4525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4565,7 +4549,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4584,7 +4568,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4603,7 +4587,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4619,7 +4603,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4636,7 +4620,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4653,7 +4637,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4668,7 +4652,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4683,7 +4667,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4698,7 +4682,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4713,7 +4697,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4728,7 +4712,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4743,7 +4727,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4758,7 +4742,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4773,7 +4757,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4788,7 +4772,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4802,7 +4786,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4816,7 +4800,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4830,7 +4814,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4844,7 +4828,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4859,7 +4843,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4874,7 +4858,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4889,7 +4873,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4904,7 +4888,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4919,7 +4903,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4934,7 +4918,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4949,7 +4933,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4964,7 +4948,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4979,7 +4963,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4994,7 +4978,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5009,7 +4993,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5024,7 +5008,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5039,7 +5023,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5054,7 +5038,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5069,7 +5053,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5084,7 +5068,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5099,7 +5083,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5114,7 +5098,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5129,7 +5113,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5144,7 +5128,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5159,7 +5143,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5174,7 +5158,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5189,7 +5173,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5204,7 +5188,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5219,7 +5203,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5234,7 +5218,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5249,7 +5233,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5264,7 +5248,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5276,7 +5260,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5288,7 +5272,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5301,7 +5285,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5314,7 +5298,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5327,7 +5311,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5340,7 +5324,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5353,7 +5337,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5366,7 +5350,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5379,7 +5363,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5392,7 +5376,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5405,7 +5389,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5418,7 +5402,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5431,7 +5415,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5444,7 +5428,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5457,7 +5441,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5470,7 +5454,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5483,7 +5467,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5496,7 +5480,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5509,7 +5493,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5522,7 +5506,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5535,7 +5519,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5548,7 +5532,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5562,7 +5546,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5576,7 +5560,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5590,7 +5574,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5604,7 +5588,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5618,7 +5602,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5632,7 +5616,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5646,7 +5630,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5660,7 +5644,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5674,7 +5658,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5688,7 +5672,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5702,7 +5686,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5716,7 +5700,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5730,7 +5714,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5744,7 +5728,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5758,7 +5742,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5772,7 +5756,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5786,7 +5770,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5800,7 +5784,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5814,7 +5798,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5828,7 +5812,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5842,7 +5826,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5856,7 +5840,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5870,7 +5854,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5884,7 +5868,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5898,7 +5882,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5912,7 +5896,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5926,7 +5910,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5940,7 +5924,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5954,7 +5938,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5968,7 +5952,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5982,7 +5966,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5996,7 +5980,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6010,7 +5994,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6024,7 +6008,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6038,7 +6022,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6052,7 +6036,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6066,7 +6050,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6080,7 +6064,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6094,7 +6078,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6108,7 +6092,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6122,7 +6106,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6136,7 +6120,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6150,7 +6134,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6164,7 +6148,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6178,7 +6162,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6192,7 +6176,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6206,7 +6190,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6220,7 +6204,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6234,7 +6218,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6248,7 +6232,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6262,7 +6246,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6276,7 +6260,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6290,7 +6274,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6304,7 +6288,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6318,7 +6302,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6332,7 +6316,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6346,7 +6330,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6360,7 +6344,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6374,7 +6358,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6388,7 +6372,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6402,7 +6386,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6416,7 +6400,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion04/Escaleta_MA_10_04_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30195" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1272,13 +1267,7 @@
     <t>Las ecuaciones trigonométricas con identidades de ángulos dobles y medios</t>
   </si>
   <si>
-    <t>Soluciona ecuaciones lineales y en forma factorizada</t>
-  </si>
-  <si>
     <t>Halla la solución de ecuaciones trigonométricas aplicando identidades</t>
-  </si>
-  <si>
-    <t>Actividad para hallar la solución de ecuaciones trigonométricas con el uso de identitdades</t>
   </si>
   <si>
     <t xml:space="preserve">Proponer 10 ejercicios con mínimo 3 situaciones problema donde el estudiante deba resolver ecuaciones trigonométricas aplicando identidades, y las fórmulas de ángulos dobles y medios. </t>
@@ -1391,9 +1380,6 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Competencias: Aplicaciones de las identidades trigonométricas</t>
-  </si>
-  <si>
     <t>Actividad para analizar diferentes aplicaciones de las identidades trigonométricas</t>
   </si>
   <si>
@@ -1410,9 +1396,6 @@
   </si>
   <si>
     <t xml:space="preserve">Evaluación sobre  Las identidades y las ecuaciones trigonométricas </t>
-  </si>
-  <si>
-    <t>Mapa conceptual sobre  Las identidades y las ecuaciones trigonométricas</t>
   </si>
   <si>
     <t>Actividades sobre  Las identidades y las ecuaciones trigonométricas</t>
@@ -1586,9 +1569,6 @@
     <t>Resuelve situaciones problema que involucran triángulos oblicuángulos</t>
   </si>
   <si>
-    <t>Actividad para resolver situaciones problema que involucran triángulos oblicuángulos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proponer 10 situaciones problema que involucren triángulos no rectángulos, para que el estudiante las resuelva teniendo en cuenta ley de seno y coseno y área de triángulos no rectángulos. </t>
   </si>
   <si>
@@ -1604,15 +1584,9 @@
     <t>La resolución de triángulos oblicuángulos</t>
   </si>
   <si>
-    <t>Resuelve triángulos oblicuángulos</t>
-  </si>
-  <si>
     <t>Aplica la ley del seno y del coseno en la resolución de triángulos oblicuángulos</t>
   </si>
   <si>
-    <t>Actividad para resolver triángulos oblicuángulos</t>
-  </si>
-  <si>
     <t>Interactivo que propone la aplicación de los teoremas del seno y del coseno para la resolución de triángulos oblicuángulos</t>
   </si>
   <si>
@@ -1629,6 +1603,27 @@
   </si>
   <si>
     <t>La resolución de triángulos no rectángulos</t>
+  </si>
+  <si>
+    <t>Soluciona ecuaciones trigonométricas lineales y en forma factorizada</t>
+  </si>
+  <si>
+    <t>Actividad para hallar la solución de ecuaciones con el uso de identidades</t>
+  </si>
+  <si>
+    <t>Resuelve triángulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para resolver diferentes tipos triángulos </t>
+  </si>
+  <si>
+    <t>Actividad para resolver situaciones que involucran triángulos oblicuángulos</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre Las identidades y las ecuaciones trigonométricas</t>
+  </si>
+  <si>
+    <t>Competencias: Las aplicaciones de las identidades trigonométricas</t>
   </si>
 </sst>
 </file>
@@ -1865,79 +1860,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,6 +1942,75 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2324,2090 +2319,2090 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17:J19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="64.85546875" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.83203125" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="64.85546875" style="15"/>
-    <col min="6" max="6" width="64.85546875" style="51"/>
-    <col min="7" max="7" width="64.85546875" style="15"/>
-    <col min="8" max="9" width="64.85546875" style="51"/>
-    <col min="10" max="10" width="64.85546875" style="52"/>
-    <col min="11" max="14" width="64.85546875" style="15"/>
-    <col min="15" max="15" width="64.85546875" style="51"/>
-    <col min="16" max="16" width="64.85546875" style="53"/>
-    <col min="17" max="17" width="64.85546875" style="51"/>
-    <col min="18" max="16384" width="64.85546875" style="15"/>
+    <col min="1" max="5" width="64.83203125" style="3"/>
+    <col min="6" max="6" width="64.83203125" style="28"/>
+    <col min="7" max="7" width="64.83203125" style="3"/>
+    <col min="8" max="9" width="64.83203125" style="28"/>
+    <col min="10" max="10" width="64.83203125" style="29"/>
+    <col min="11" max="14" width="64.83203125" style="3"/>
+    <col min="15" max="15" width="64.83203125" style="28"/>
+    <col min="16" max="16" width="64.83203125" style="30"/>
+    <col min="17" max="17" width="64.83203125" style="28"/>
+    <col min="18" max="16384" width="64.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="23" t="s">
+    <row r="2" spans="1:21" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="25"/>
-    </row>
-    <row r="3" spans="1:21" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="29.25" customHeight="1" thickTop="1">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="18">
         <v>6</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>6</v>
+      </c>
+      <c r="R4" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S4" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T4" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U4" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="5" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="46">
-        <v>2</v>
-      </c>
-      <c r="I4" s="47" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>6</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>6</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="J7" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="40" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>6</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q8" s="18">
         <v>6</v>
       </c>
-      <c r="R4" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S4" s="41" t="s">
+      <c r="R8" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="23">
+        <v>7</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>6</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="11">
+        <v>8</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>6</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T10" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="U10" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>6</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="23">
+        <v>10</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>6</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="23">
+        <v>11</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>6</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U13" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="11">
+        <v>12</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>6</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="11">
+        <v>13</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>6</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="23">
+        <v>14</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>6</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="23">
+        <v>15</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>6</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="11">
+        <v>16</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>6</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="11">
+        <v>17</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>6</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="20" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="U19" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="46">
-        <v>3</v>
-      </c>
-      <c r="I5" s="47" t="s">
+      <c r="D20" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="23">
+        <v>18</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="J20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>6</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="23">
+        <v>19</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>6</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="11">
+        <v>20</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>6</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="11">
+        <v>21</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>6</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="23">
+        <v>22</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>6</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="23">
+        <v>23</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>6</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" s="11">
+        <v>24</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="40" t="s">
+      <c r="O26" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>6</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="11">
+        <v>25</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q27" s="18">
+        <v>9</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="23">
+        <v>26</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="18">
         <v>6</v>
       </c>
-      <c r="R5" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="U5" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="R28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" s="34">
-        <v>4</v>
-      </c>
-      <c r="I6" s="47" t="s">
+      <c r="D29" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="23">
+        <v>27</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="36" t="s">
+      <c r="J29" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="P6" s="40" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q29" s="18">
         <v>6</v>
       </c>
-      <c r="R6" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T6" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="R29" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T29" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="34">
-        <v>5</v>
-      </c>
-      <c r="I7" s="47" t="s">
+      <c r="D30" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="11">
+        <v>28</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="36" t="s">
+      <c r="J30" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="P7" s="40" t="s">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>6</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11">
+        <v>29</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="J31" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="23">
+        <v>30</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="18">
         <v>6</v>
       </c>
-      <c r="R7" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T7" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="U7" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="46">
-        <v>6</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="41">
-        <v>6</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S8" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T8" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="46">
-        <v>7</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="41">
-        <v>6</v>
-      </c>
-      <c r="R9" s="42" t="s">
+      <c r="R32" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="S32" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="T9" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="U9" s="41" t="s">
+      <c r="T32" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="U32" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="34">
-        <v>8</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="41">
-        <v>6</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="U10" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="34">
-        <v>9</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="41">
-        <v>6</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T11" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="U11" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" s="46">
-        <v>10</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="41">
-        <v>6</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S12" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="U12" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="H13" s="46">
-        <v>11</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="41">
-        <v>6</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="U13" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="34">
-        <v>12</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="41">
-        <v>6</v>
-      </c>
-      <c r="R14" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T14" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="U14" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="34">
-        <v>13</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="41">
-        <v>6</v>
-      </c>
-      <c r="R15" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T15" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="46">
-        <v>14</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="41">
-        <v>6</v>
-      </c>
-      <c r="R16" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="S16" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="T16" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="U16" s="41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="46">
-        <v>15</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="41">
-        <v>6</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T17" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="34">
-        <v>16</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="41">
-        <v>6</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S18" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="U18" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="H19" s="34">
-        <v>17</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="P19" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="41">
-        <v>6</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S19" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T19" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="U19" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="46">
-        <v>18</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="P20" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="41">
-        <v>6</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S20" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T20" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="U20" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="H21" s="46">
-        <v>19</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="P21" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="41">
-        <v>6</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="S21" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="T21" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="34">
-        <v>20</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="41">
-        <v>6</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S22" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="U22" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="34">
-        <v>21</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="41">
-        <v>6</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S23" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="U23" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" s="46">
-        <v>22</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="41">
-        <v>6</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S24" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T24" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="U24" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="46">
-        <v>23</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="41">
-        <v>6</v>
-      </c>
-      <c r="R25" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S25" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T25" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="U25" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="34">
-        <v>24</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="P26" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="41">
-        <v>6</v>
-      </c>
-      <c r="R26" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S26" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T26" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="U26" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" s="34">
-        <v>25</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="P27" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="41">
-        <v>9</v>
-      </c>
-      <c r="R27" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="S27" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="T27" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="U27" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="46">
-        <v>26</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="P28" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="41">
-        <v>6</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S28" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T28" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="U28" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="46">
-        <v>27</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="41">
-        <v>6</v>
-      </c>
-      <c r="R29" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S29" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T29" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="U29" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" s="34">
-        <v>28</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="41">
-        <v>6</v>
-      </c>
-      <c r="R30" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S30" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T30" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="U30" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="34">
-        <v>29</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="41"/>
-    </row>
-    <row r="32" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="46">
-        <v>30</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="P32" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="41">
-        <v>6</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="S32" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="T32" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="U32" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="50"/>
-    </row>
-    <row r="47" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="33" spans="1:3" ht="29.25" customHeight="1">
+      <c r="C33" s="27"/>
+    </row>
+    <row r="47" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+    <row r="65" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+    <row r="73" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+    <row r="74" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A82" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:1" ht="29.25" customHeight="1">
+      <c r="A83" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4416,6 +4411,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4430,12 +4431,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4488,27 +4483,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4544,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4563,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4587,7 +4582,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4603,7 +4598,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4620,7 +4615,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4637,7 +4632,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4652,7 +4647,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4667,7 +4662,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4682,7 +4677,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4697,7 +4692,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4712,7 +4707,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4727,7 +4722,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4742,7 +4737,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4757,7 +4752,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4772,7 +4767,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4786,7 +4781,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4800,7 +4795,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4814,7 +4809,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4828,7 +4823,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4843,7 +4838,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4858,7 +4853,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4873,7 +4868,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4888,7 +4883,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4903,7 +4898,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4918,7 +4913,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4933,7 +4928,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4948,7 +4943,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4963,7 +4958,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4978,7 +4973,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4993,7 +4988,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5008,7 +5003,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5023,7 +5018,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5038,7 +5033,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5053,7 +5048,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5068,7 +5063,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5083,7 +5078,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5098,7 +5093,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5113,7 +5108,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5128,7 +5123,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5143,7 +5138,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5158,7 +5153,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5173,7 +5168,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5188,7 +5183,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5203,7 +5198,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5218,7 +5213,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5233,7 +5228,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5248,7 +5243,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5260,7 +5255,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5272,7 +5267,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5285,7 +5280,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5298,7 +5293,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5311,7 +5306,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5324,7 +5319,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5337,7 +5332,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5350,7 +5345,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5363,7 +5358,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5376,7 +5371,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5389,7 +5384,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5402,7 +5397,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5415,7 +5410,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5428,7 +5423,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5441,7 +5436,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5454,7 +5449,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5467,7 +5462,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5480,7 +5475,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5493,7 +5488,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5506,7 +5501,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5519,7 +5514,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5532,7 +5527,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5546,7 +5541,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5560,7 +5555,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5574,7 +5569,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5588,7 +5583,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5602,7 +5597,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5616,7 +5611,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5630,7 +5625,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5644,7 +5639,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5658,7 +5653,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5672,7 +5667,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5686,7 +5681,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5700,7 +5695,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5714,7 +5709,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5728,7 +5723,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5742,7 +5737,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5756,7 +5751,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5770,7 +5765,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5784,7 +5779,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5798,7 +5793,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5812,7 +5807,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5826,7 +5821,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5840,7 +5835,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5854,7 +5849,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5868,7 +5863,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5882,7 +5877,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5896,7 +5891,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5910,7 +5905,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5924,7 +5919,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5938,7 +5933,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5952,7 +5947,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5966,7 +5961,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5980,7 +5975,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5994,7 +5989,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6008,7 +6003,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6022,7 +6017,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6036,7 +6031,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6050,7 +6045,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6064,7 +6059,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6078,7 +6073,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6092,7 +6087,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6106,7 +6101,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6120,7 +6115,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6134,7 +6129,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6148,7 +6143,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6162,7 +6157,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6176,7 +6171,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6190,7 +6185,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6204,7 +6199,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6218,7 +6213,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6232,7 +6227,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6246,7 +6241,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6260,7 +6255,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6274,7 +6269,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6288,7 +6283,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6302,7 +6297,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6316,7 +6311,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6330,7 +6325,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6344,7 +6339,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6358,7 +6353,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6372,7 +6367,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6386,7 +6381,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6400,7 +6395,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
